--- a/output/DiagnosticReport/observation-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-path-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="482">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-03:The observation shall at least have a value, a data absent reason or a member observation {value.exists() or hasMember.exists() or dataAbsentReason.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -481,7 +481,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>preliminary | final | amended +</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -496,10 +496,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/diagnostic-observation-status-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -575,13 +572,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/pathology-procedure-1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -700,7 +691,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -848,7 +839,7 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -861,6 +852,13 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:resolve()}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -871,6 +869,20 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>practitionerRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1)
+</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
+</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1013,6 +1025,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1470,6 +1485,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1663,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1696,7 +1717,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3421,11 +3442,9 @@
       <c r="W15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3458,19 +3477,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3478,7 +3497,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3501,19 +3520,19 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3523,7 +3542,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3541,11 +3560,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3562,7 +3581,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3586,10 +3605,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3597,11 +3616,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3620,19 +3639,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3657,13 +3676,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3681,7 +3698,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3696,27 +3713,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3742,10 +3759,10 @@
         <v>57</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3796,7 +3813,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3820,7 +3837,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3831,7 +3848,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3857,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>116</v>
@@ -3904,7 +3921,7 @@
         <v>103</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
@@ -3913,7 +3930,7 @@
         <v>104</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3937,7 +3954,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3948,7 +3965,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3971,19 +3988,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4020,7 +4037,7 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4030,7 +4047,7 @@
         <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4051,10 +4068,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4065,10 +4082,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
@@ -4090,19 +4107,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4131,7 +4148,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4149,7 +4166,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4170,10 +4187,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4184,7 +4201,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4210,16 +4227,16 @@
         <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4268,7 +4285,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4289,10 +4306,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4303,7 +4320,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4326,19 +4343,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4387,7 +4404,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4402,19 +4419,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4422,7 +4439,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4445,16 +4462,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4504,7 +4521,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4525,13 +4542,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4539,11 +4556,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4562,19 +4579,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4623,7 +4640,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4638,19 +4655,19 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4658,11 +4675,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4681,19 +4698,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4742,7 +4759,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4757,19 +4774,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4777,7 +4794,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4800,16 +4817,16 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4859,7 +4876,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4880,21 +4897,21 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4905,7 +4922,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>56</v>
@@ -4917,17 +4934,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4964,19 +4981,17 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4991,29 +5006,31 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AO28" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5025,7 +5042,7 @@
         <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>45</v>
@@ -5034,19 +5051,17 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5095,44 +5110,46 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5144,28 +5161,26 @@
         <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5190,13 +5205,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5214,34 +5229,34 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5249,18 +5264,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>56</v>
@@ -5269,22 +5284,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5309,13 +5324,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5333,16 +5348,16 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
@@ -5351,24 +5366,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5379,7 +5394,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>56</v>
@@ -5391,19 +5406,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5428,13 +5443,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5452,16 +5467,16 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5473,10 +5488,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5485,23 +5500,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>45</v>
@@ -5510,18 +5525,20 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5545,13 +5562,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5569,13 +5586,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5587,24 +5604,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5615,10 +5632,10 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
@@ -5627,19 +5644,19 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5664,13 +5681,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5688,13 +5705,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5709,10 +5726,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5721,9 +5738,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5737,7 +5754,7 @@
         <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>45</v>
@@ -5746,16 +5763,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>333</v>
+        <v>159</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5781,13 +5798,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5805,7 +5822,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5823,24 +5840,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5863,16 +5880,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5896,13 +5917,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5920,7 +5941,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>188</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5932,7 +5953,7 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5941,10 +5962,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>189</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5953,23 +5974,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5978,16 +5999,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6025,54 +6046,54 @@
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>194</v>
+        <v>336</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>189</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6080,7 +6101,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>55</v>
@@ -6092,20 +6113,18 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6154,7 +6173,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>347</v>
+        <v>185</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6163,10 +6182,10 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6178,7 +6197,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6189,18 +6208,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6209,19 +6228,19 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6247,43 +6266,43 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
@@ -6295,7 +6314,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6306,7 +6325,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6314,7 +6333,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>55</v>
@@ -6329,16 +6348,16 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6388,7 +6407,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6397,7 +6416,7 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6412,7 +6431,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6423,7 +6442,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6446,16 +6465,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6481,13 +6500,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6505,7 +6524,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6540,7 +6559,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6560,19 +6579,19 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>368</v>
+        <v>120</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6622,7 +6641,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6640,24 +6659,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6668,32 +6687,30 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>377</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6741,19 +6758,19 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>382</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6762,10 +6779,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>98</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6776,7 +6793,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6799,15 +6816,17 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>186</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6856,7 +6875,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>188</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6868,34 +6887,34 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6905,7 +6924,7 @@
         <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
@@ -6914,18 +6933,20 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6973,7 +6994,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6985,7 +7006,7 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>106</v>
+        <v>386</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6994,10 +7015,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>189</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7008,43 +7029,39 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7092,19 +7109,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>391</v>
+        <v>185</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7116,7 +7133,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7125,23 +7142,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7150,15 +7167,17 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>393</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>394</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7207,19 +7226,19 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>191</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7228,10 +7247,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>398</v>
+        <v>186</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7240,41 +7259,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7322,19 +7345,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7343,10 +7366,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>402</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7357,7 +7380,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7380,20 +7403,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>160</v>
+        <v>397</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7417,13 +7436,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7441,7 +7460,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7450,7 +7469,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7459,13 +7478,13 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7476,7 +7495,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7487,7 +7506,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>56</v>
@@ -7499,20 +7518,16 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>160</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7536,13 +7551,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7560,16 +7575,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7578,13 +7593,13 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7595,7 +7610,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7618,17 +7633,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>420</v>
+        <v>159</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7653,13 +7670,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7677,7 +7694,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7695,13 +7712,13 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>424</v>
+        <v>306</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7712,7 +7729,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7723,7 +7740,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>56</v>
@@ -7735,16 +7752,20 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7768,13 +7789,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7792,13 +7813,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7810,13 +7831,13 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>428</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7827,7 +7848,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7838,7 +7859,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>56</v>
@@ -7847,21 +7868,21 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7909,13 +7930,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7930,10 +7951,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7942,9 +7963,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7958,7 +7979,7 @@
         <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
@@ -7970,10 +7991,10 @@
         <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>431</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8024,7 +8045,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>188</v>
+        <v>429</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8036,7 +8057,7 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
@@ -8045,10 +8066,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>189</v>
+        <v>432</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8057,13 +8078,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8073,25 +8094,25 @@
         <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>191</v>
+        <v>435</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>192</v>
+        <v>436</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>116</v>
+        <v>437</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8129,19 +8150,19 @@
         <v>45</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>194</v>
+        <v>433</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8153,7 +8174,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8162,10 +8183,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8176,7 +8197,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8184,7 +8205,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>55</v>
@@ -8196,20 +8217,18 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8258,7 +8277,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>347</v>
+        <v>185</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8267,10 +8286,10 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8282,7 +8301,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8293,18 +8312,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8313,19 +8332,19 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8351,43 +8370,43 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8399,7 +8418,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8410,7 +8429,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8418,7 +8437,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>55</v>
@@ -8433,16 +8452,16 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8492,7 +8511,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8501,7 +8520,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8516,7 +8535,7 @@
         <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8527,7 +8546,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8550,16 +8569,16 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8585,13 +8604,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8609,7 +8628,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8644,7 +8663,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8655,7 +8674,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8667,16 +8686,16 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>443</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>444</v>
+        <v>361</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8726,13 +8745,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>442</v>
+        <v>364</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -8747,10 +8766,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8761,7 +8780,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8772,7 +8791,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8784,20 +8803,18 @@
         <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>377</v>
+        <v>57</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>449</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>368</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8845,13 +8862,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>448</v>
+        <v>370</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8866,10 +8883,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>453</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8880,7 +8897,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8891,7 +8908,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8900,18 +8917,20 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>447</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>186</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8960,19 +8979,19 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>188</v>
+        <v>446</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -8981,10 +9000,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>189</v>
+        <v>451</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8995,18 +9014,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
@@ -9015,21 +9034,23 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>191</v>
+        <v>453</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>192</v>
+        <v>454</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9077,7 +9098,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>194</v>
+        <v>452</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9089,7 +9110,7 @@
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -9098,10 +9119,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>189</v>
+        <v>458</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9112,43 +9133,39 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>389</v>
+        <v>183</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9196,19 +9213,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>391</v>
+        <v>185</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9220,7 +9237,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9231,18 +9248,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9251,23 +9268,21 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>459</v>
+        <v>188</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>460</v>
+        <v>189</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9291,13 +9306,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9315,34 +9330,34 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>458</v>
+        <v>191</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>462</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>45</v>
@@ -9350,42 +9365,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>464</v>
+        <v>100</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>466</v>
+        <v>116</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9434,42 +9449,42 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>463</v>
+        <v>395</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>467</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9477,7 +9492,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>55</v>
@@ -9489,22 +9504,22 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9529,13 +9544,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>289</v>
+        <v>466</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>290</v>
+        <v>467</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9553,16 +9568,16 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>67</v>
@@ -9571,16 +9586,16 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>45</v>
@@ -9588,18 +9603,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9608,22 +9623,22 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>295</v>
+        <v>471</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>297</v>
+        <v>472</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9648,13 +9663,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9672,13 +9687,13 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
@@ -9690,24 +9705,24 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>301</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9718,7 +9733,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9730,19 +9745,19 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>381</v>
+        <v>290</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9767,13 +9782,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9791,16 +9806,16 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>67</v>
@@ -9812,20 +9827,258 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO69" t="s" s="2">
+      <c r="N71" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
+  <autoFilter ref="A1:AO71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9835,7 +10088,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-path-atomic-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="481">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-03:The observation shall at least have a value, a data absent reason or a member observation {value.exists() or hasMember.exists() or dataAbsentReason.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-04:One category shall be 'laboratory' 'http://terminology.hl7.org/CodeSystem/observation-category' {category.coding.where(system='http://terminology.hl7.org/CodeSystem/observation-category' and code='laboratory').exists()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-02:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-03:The observation shall at least have a value, a data absent reason or a member observation {value.exists() or hasMember.exists() or dataAbsentReason.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -531,14 +531,6 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -3542,7 +3534,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3560,10 +3552,10 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3605,10 +3597,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3616,11 +3608,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3642,16 +3634,16 @@
         <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3680,7 +3672,7 @@
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3698,7 +3690,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3713,27 +3705,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3759,10 +3751,10 @@
         <v>57</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3813,7 +3805,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3837,7 +3829,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3848,7 +3840,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3874,10 +3866,10 @@
         <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>116</v>
@@ -3921,7 +3913,7 @@
         <v>103</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
@@ -3930,7 +3922,7 @@
         <v>104</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3954,7 +3946,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3965,7 +3957,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3988,19 +3980,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4037,7 +4029,7 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4047,7 +4039,7 @@
         <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4068,10 +4060,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4082,10 +4074,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
@@ -4107,19 +4099,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4148,7 +4140,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4166,7 +4158,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4187,10 +4179,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4201,7 +4193,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4227,16 +4219,16 @@
         <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4285,7 +4277,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4306,10 +4298,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4320,7 +4312,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4343,19 +4335,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4404,7 +4396,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4419,19 +4411,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4439,7 +4431,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4462,16 +4454,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4521,7 +4513,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4542,13 +4534,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4556,11 +4548,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4579,19 +4571,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4640,7 +4632,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4655,19 +4647,19 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4675,11 +4667,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4698,19 +4690,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4759,7 +4751,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4774,19 +4766,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4794,7 +4786,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4817,16 +4809,16 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4876,7 +4868,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4897,13 +4889,13 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4911,7 +4903,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4922,7 +4914,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>56</v>
@@ -4934,17 +4926,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4981,17 +4973,17 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5006,19 +4998,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5026,10 +5018,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>45</v>
@@ -5051,17 +5043,17 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5110,7 +5102,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5125,19 +5117,19 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5145,10 +5137,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>45</v>
@@ -5170,17 +5162,17 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5229,7 +5221,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5244,19 +5236,19 @@
         <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5264,7 +5256,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5287,19 +5279,19 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5348,7 +5340,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5357,7 +5349,7 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
@@ -5366,24 +5358,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5409,16 +5401,16 @@
         <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5443,14 +5435,14 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5467,7 +5459,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5476,7 +5468,7 @@
         <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5491,7 +5483,7 @@
         <v>98</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5502,11 +5494,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5528,16 +5520,16 @@
         <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5562,14 +5554,14 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5586,7 +5578,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5604,24 +5596,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5644,19 +5636,19 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5705,7 +5697,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5726,10 +5718,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5740,7 +5732,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5766,13 +5758,13 @@
         <v>159</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5798,14 +5790,14 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5822,7 +5814,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5840,24 +5832,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5883,16 +5875,16 @@
         <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5917,14 +5909,14 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5941,7 +5933,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5962,10 +5954,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5976,7 +5968,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5999,16 +5991,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6058,7 +6050,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6076,24 +6068,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6119,10 +6111,10 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6173,7 +6165,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6197,7 +6189,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6208,7 +6200,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6234,10 +6226,10 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>116</v>
@@ -6281,7 +6273,7 @@
         <v>103</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>45</v>
@@ -6290,7 +6282,7 @@
         <v>104</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6314,7 +6306,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6325,7 +6317,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6351,13 +6343,13 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6407,7 +6399,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6416,7 +6408,7 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6442,7 +6434,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6468,13 +6460,13 @@
         <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6500,31 +6492,31 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6559,7 +6551,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6585,13 +6577,13 @@
         <v>120</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6641,7 +6633,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6665,7 +6657,7 @@
         <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6676,7 +6668,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6702,13 +6694,13 @@
         <v>57</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6758,7 +6750,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6793,7 +6785,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6816,16 +6808,16 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6875,7 +6867,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6893,24 +6885,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6933,19 +6925,19 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6994,7 +6986,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7006,19 +6998,19 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7029,7 +7021,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7055,10 +7047,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7109,7 +7101,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7133,7 +7125,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7144,7 +7136,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7170,10 +7162,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>116</v>
@@ -7226,7 +7218,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7250,7 +7242,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7261,11 +7253,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7287,10 +7279,10 @@
         <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>116</v>
@@ -7345,7 +7337,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7380,7 +7372,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7403,13 +7395,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7460,7 +7452,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7469,7 +7461,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7481,10 +7473,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7495,7 +7487,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7518,13 +7510,13 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7575,7 +7567,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7584,7 +7576,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7596,10 +7588,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7610,7 +7602,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7636,16 +7628,16 @@
         <v>159</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7673,11 +7665,11 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7694,7 +7686,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7712,13 +7704,13 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7729,7 +7721,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7755,16 +7747,16 @@
         <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7789,14 +7781,14 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7813,7 +7805,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7831,13 +7823,13 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7848,7 +7840,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7871,17 +7863,17 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7930,7 +7922,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7954,7 +7946,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7965,7 +7957,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7991,10 +7983,10 @@
         <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8045,7 +8037,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8066,10 +8058,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8080,7 +8072,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8103,16 +8095,16 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8162,7 +8154,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8183,10 +8175,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8197,7 +8189,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8223,10 +8215,10 @@
         <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8277,7 +8269,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8301,7 +8293,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8312,7 +8304,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8338,10 +8330,10 @@
         <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>116</v>
@@ -8385,7 +8377,7 @@
         <v>103</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>45</v>
@@ -8394,7 +8386,7 @@
         <v>104</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8418,7 +8410,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8429,7 +8421,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8455,13 +8447,13 @@
         <v>57</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8511,7 +8503,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8520,7 +8512,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8546,7 +8538,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8572,13 +8564,13 @@
         <v>69</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8604,31 +8596,31 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8663,7 +8655,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8689,13 +8681,13 @@
         <v>120</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8745,7 +8737,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8769,7 +8761,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8780,7 +8772,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8806,13 +8798,13 @@
         <v>57</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8862,7 +8854,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8897,7 +8889,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8920,16 +8912,16 @@
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8979,7 +8971,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9000,10 +8992,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9014,7 +9006,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9037,19 +9029,19 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9098,7 +9090,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9119,10 +9111,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9133,7 +9125,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9159,10 +9151,10 @@
         <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9213,7 +9205,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9237,7 +9229,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9248,7 +9240,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9274,10 +9266,10 @@
         <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>116</v>
@@ -9330,7 +9322,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9354,7 +9346,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9365,11 +9357,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9391,10 +9383,10 @@
         <v>100</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>116</v>
@@ -9449,7 +9441,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9484,7 +9476,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9510,16 +9502,16 @@
         <v>159</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9544,14 +9536,14 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9568,7 +9560,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>55</v>
@@ -9586,16 +9578,16 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>45</v>
@@ -9603,7 +9595,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9626,19 +9618,19 @@
         <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9687,7 +9679,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9705,24 +9697,24 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9748,16 +9740,16 @@
         <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9782,14 +9774,14 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X69" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="X69" t="s" s="2">
+      <c r="Y69" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9806,7 +9798,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9815,7 +9807,7 @@
         <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>67</v>
@@ -9830,7 +9822,7 @@
         <v>98</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9841,11 +9833,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9867,16 +9859,16 @@
         <v>159</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9901,14 +9893,14 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9925,7 +9917,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9943,24 +9935,24 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9986,16 +9978,16 @@
         <v>45</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="M71" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10044,7 +10036,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10065,10 +10057,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-path-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="478">
   <si>
     <t>Path</t>
   </si>
@@ -618,6 +618,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
@@ -634,10 +637,6 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -645,15 +644,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1676,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3959,7 +3949,9 @@
       <c r="A20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3968,7 +3960,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3980,19 +3972,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4029,14 +4021,16 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>198</v>
@@ -4074,11 +4068,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>201</v>
       </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4087,7 +4079,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -4099,19 +4091,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4136,11 +4128,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4158,13 +4152,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4179,10 +4173,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4191,9 +4185,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4201,13 +4195,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4216,19 +4210,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4292,27 +4286,27 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4320,13 +4314,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4335,20 +4329,18 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4396,13 +4388,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4411,19 +4403,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4431,18 +4423,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4454,18 +4446,20 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4513,13 +4507,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4528,41 +4522,41 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
@@ -4571,19 +4565,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4632,7 +4626,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4647,41 +4641,41 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4690,20 +4684,18 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4751,7 +4743,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4766,19 +4758,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4786,7 +4778,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4797,10 +4789,10 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4809,18 +4801,18 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4856,25 +4848,23 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4883,19 +4873,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4903,9 +4893,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4914,10 +4906,10 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>45</v>
@@ -4926,17 +4918,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4973,17 +4965,19 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4998,19 +4992,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5018,10 +5012,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>45</v>
@@ -5043,17 +5037,17 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5102,7 +5096,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5117,31 +5111,29 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5153,7 +5145,7 @@
         <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5162,17 +5154,19 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5221,42 +5215,42 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5276,22 +5270,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5316,13 +5310,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5340,7 +5334,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5349,7 +5343,7 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
@@ -5358,35 +5352,35 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>98</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>56</v>
@@ -5401,16 +5395,16 @@
         <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5435,40 +5429,40 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5477,28 +5471,28 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5517,19 +5511,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5554,13 +5548,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5578,7 +5572,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5596,24 +5590,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5624,10 +5618,10 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
@@ -5636,20 +5630,18 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5673,13 +5665,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5697,13 +5689,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5715,24 +5707,24 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5758,15 +5750,17 @@
         <v>159</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5790,13 +5784,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5814,7 +5808,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5832,24 +5826,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5863,7 +5857,7 @@
         <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -5872,20 +5866,18 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>159</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5909,31 +5901,31 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5951,24 +5943,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5982,7 +5974,7 @@
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5991,17 +5983,15 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>336</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6050,7 +6040,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>184</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6062,41 +6052,41 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6108,15 +6098,17 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6153,31 +6145,31 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6200,18 +6192,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6220,19 +6212,19 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>116</v>
+        <v>346</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6270,31 +6262,31 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
@@ -6306,7 +6298,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6317,7 +6309,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6325,7 +6317,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>55</v>
@@ -6340,16 +6332,16 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6375,13 +6367,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6399,7 +6391,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6408,7 +6400,7 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6434,7 +6426,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6457,16 +6449,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6492,13 +6484,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6516,7 +6508,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6540,7 +6532,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>98</v>
+        <v>361</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6551,7 +6543,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6574,16 +6566,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6633,7 +6625,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6657,7 +6649,7 @@
         <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6668,7 +6660,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6688,19 +6680,19 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>57</v>
+        <v>368</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6750,7 +6742,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6768,24 +6760,24 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>98</v>
+        <v>374</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6796,10 +6788,10 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
@@ -6808,18 +6800,20 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6867,42 +6861,42 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>382</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6913,10 +6907,10 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
@@ -6925,20 +6919,16 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6986,19 +6976,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>379</v>
+        <v>184</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -7007,10 +6997,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>387</v>
+        <v>185</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7021,18 +7011,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7044,15 +7034,17 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7101,19 +7093,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7136,11 +7128,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>113</v>
+        <v>388</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7153,24 +7145,26 @@
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>389</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>188</v>
+        <v>390</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7218,7 +7212,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7242,7 +7236,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7251,45 +7245,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>393</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7337,19 +7327,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7358,10 +7348,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7372,7 +7362,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7395,13 +7385,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7452,7 +7442,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7461,7 +7451,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7473,10 +7463,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7487,7 +7477,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7510,16 +7500,20 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>396</v>
+        <v>159</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7543,13 +7537,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7567,7 +7561,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7576,7 +7570,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7585,13 +7579,13 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>405</v>
+        <v>302</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7602,7 +7596,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7613,7 +7607,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>56</v>
@@ -7628,16 +7622,16 @@
         <v>159</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7662,37 +7656,37 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7704,13 +7698,13 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7721,7 +7715,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7732,7 +7726,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>56</v>
@@ -7744,19 +7738,17 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>159</v>
+        <v>420</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7781,13 +7773,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7805,13 +7797,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7823,13 +7815,13 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7840,7 +7832,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7863,18 +7855,16 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>423</v>
+        <v>57</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7922,7 +7912,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7943,10 +7933,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7957,7 +7947,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7968,7 +7958,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>56</v>
@@ -7977,18 +7967,20 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>430</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8037,13 +8029,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -8058,10 +8050,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8070,9 +8062,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8083,29 +8075,27 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>433</v>
+        <v>57</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>434</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8154,19 +8144,19 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>432</v>
+        <v>184</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8175,10 +8165,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>438</v>
+        <v>185</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8189,18 +8179,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8212,15 +8202,17 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8257,31 +8249,31 @@
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8304,18 +8296,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8324,19 +8316,19 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
+        <v>346</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8374,31 +8366,31 @@
         <v>45</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8410,7 +8402,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8421,7 +8413,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8429,7 +8421,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>55</v>
@@ -8444,16 +8436,16 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8479,13 +8471,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8503,7 +8495,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8512,7 +8504,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8538,7 +8530,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8561,16 +8553,16 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8596,13 +8588,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8620,7 +8612,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8644,7 +8636,7 @@
         <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>98</v>
+        <v>361</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8655,7 +8647,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8678,16 +8670,16 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8737,7 +8729,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8761,7 +8753,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8772,7 +8764,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8783,7 +8775,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8795,16 +8787,16 @@
         <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>57</v>
+        <v>443</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8854,13 +8846,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8875,10 +8867,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>98</v>
+        <v>447</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8889,7 +8881,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8900,7 +8892,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8912,18 +8904,20 @@
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8971,7 +8965,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8992,10 +8986,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9006,7 +9000,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9017,7 +9011,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
@@ -9026,23 +9020,19 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>452</v>
+        <v>182</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9090,19 +9080,19 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>451</v>
+        <v>184</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -9111,10 +9101,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>456</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>457</v>
+        <v>185</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9125,18 +9115,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9148,15 +9138,17 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9205,19 +9197,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9240,11 +9232,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>113</v>
+        <v>388</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9257,24 +9249,26 @@
         <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>187</v>
+        <v>389</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>188</v>
+        <v>390</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9322,7 +9316,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9346,7 +9340,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9357,42 +9351,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>116</v>
+        <v>461</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9417,13 +9411,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>45</v>
+        <v>462</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9441,34 +9435,34 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
@@ -9476,7 +9470,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9484,7 +9478,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>55</v>
@@ -9499,19 +9493,19 @@
         <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>274</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9536,34 +9530,34 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AF67" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>55</v>
@@ -9578,24 +9572,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9615,22 +9609,22 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>469</v>
+        <v>159</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>277</v>
+        <v>472</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9655,13 +9649,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9679,7 +9673,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9688,7 +9682,7 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>67</v>
@@ -9697,35 +9691,35 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>472</v>
+        <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>282</v>
+        <v>98</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9740,16 +9734,16 @@
         <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>474</v>
+        <v>294</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>475</v>
+        <v>295</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>476</v>
+        <v>296</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9774,13 +9768,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9798,16 +9792,16 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>67</v>
@@ -9816,28 +9810,28 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9856,19 +9850,19 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>297</v>
+        <v>476</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>298</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>299</v>
+        <v>380</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9893,13 +9887,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9917,7 +9911,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9935,142 +9929,23 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO71">
+  <autoFilter ref="A1:AO70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10080,7 +9955,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-path-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="481">
   <si>
     <t>Path</t>
   </si>
@@ -618,9 +618,6 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
@@ -637,6 +634,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -644,6 +645,15 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1666,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AO71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3949,9 +3959,7 @@
       <c r="A20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3972,19 +3980,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4021,16 +4029,14 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>198</v>
@@ -4068,9 +4074,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -4091,19 +4099,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4128,13 +4136,11 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4152,13 +4158,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4173,10 +4179,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4185,9 +4191,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4195,13 +4201,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4210,19 +4216,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4286,27 +4292,27 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4314,13 +4320,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4329,18 +4335,20 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4388,13 +4396,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4403,19 +4411,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4423,18 +4431,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4446,20 +4454,18 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4507,13 +4513,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4522,41 +4528,41 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>45</v>
@@ -4565,19 +4571,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4626,7 +4632,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4641,41 +4647,41 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4684,18 +4690,20 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4743,7 +4751,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4758,19 +4766,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4778,7 +4786,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4789,10 +4797,10 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4801,18 +4809,18 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4848,23 +4856,25 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4873,19 +4883,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4893,11 +4903,9 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4906,10 +4914,10 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>45</v>
@@ -4918,17 +4926,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4965,19 +4973,17 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4992,19 +4998,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5012,10 +5018,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>45</v>
@@ -5037,17 +5043,17 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5096,7 +5102,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5111,29 +5117,31 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5145,7 +5153,7 @@
         <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5154,19 +5162,17 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5215,42 +5221,42 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5270,22 +5276,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5310,13 +5316,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5334,7 +5340,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5343,7 +5349,7 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
@@ -5352,35 +5358,35 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>56</v>
@@ -5395,16 +5401,16 @@
         <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5429,13 +5435,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5453,16 +5459,16 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5471,28 +5477,28 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5511,19 +5517,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5548,13 +5554,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5572,7 +5578,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5590,24 +5596,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5618,10 +5624,10 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
@@ -5630,18 +5636,20 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5665,13 +5673,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5689,13 +5697,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5707,24 +5715,24 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5750,17 +5758,15 @@
         <v>159</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5784,13 +5790,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5808,7 +5814,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5826,24 +5832,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5857,7 +5863,7 @@
         <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -5866,18 +5872,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5901,13 +5909,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5925,7 +5933,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5943,24 +5951,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5974,7 +5982,7 @@
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5983,15 +5991,17 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6040,7 +6050,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>184</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6052,41 +6062,41 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6098,17 +6108,15 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6145,31 +6153,31 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6192,18 +6200,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6212,19 +6220,19 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>344</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6262,31 +6270,31 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>347</v>
+        <v>190</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
@@ -6298,7 +6306,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6309,7 +6317,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6317,7 +6325,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>55</v>
@@ -6332,16 +6340,16 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6367,13 +6375,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6391,7 +6399,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6400,7 +6408,7 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6426,7 +6434,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6449,16 +6457,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6484,13 +6492,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6508,7 +6516,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6532,7 +6540,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6543,7 +6551,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6566,16 +6574,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6625,7 +6633,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6649,7 +6657,7 @@
         <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6660,7 +6668,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6680,19 +6688,19 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6742,7 +6750,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6760,24 +6768,24 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>98</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6788,10 +6796,10 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
@@ -6800,20 +6808,18 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6861,42 +6867,42 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6907,10 +6913,10 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
@@ -6919,16 +6925,20 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>182</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6976,19 +6986,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6997,10 +7007,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>185</v>
+        <v>387</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7011,18 +7021,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7034,17 +7044,15 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7093,19 +7101,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7128,11 +7136,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>388</v>
+        <v>113</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7145,26 +7153,24 @@
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>389</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>188</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7212,7 +7218,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7236,7 +7242,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7245,41 +7251,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="M48" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7327,19 +7337,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7348,10 +7358,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>398</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7362,7 +7372,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7385,13 +7395,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7442,7 +7452,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7451,7 +7461,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7463,10 +7473,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7477,7 +7487,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7500,20 +7510,16 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7537,13 +7543,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7561,7 +7567,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7570,7 +7576,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7579,13 +7585,13 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7596,7 +7602,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7607,7 +7613,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>56</v>
@@ -7622,16 +7628,16 @@
         <v>159</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7656,13 +7662,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7680,13 +7686,13 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7698,13 +7704,13 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7715,7 +7721,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7726,7 +7732,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>56</v>
@@ -7738,17 +7744,19 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>420</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7773,13 +7781,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7797,13 +7805,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7815,13 +7823,13 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>424</v>
+        <v>305</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7832,7 +7840,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7855,16 +7863,18 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>57</v>
+        <v>423</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7912,7 +7922,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7933,10 +7943,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7947,7 +7957,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7958,7 +7968,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>56</v>
@@ -7967,20 +7977,18 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8029,13 +8037,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -8050,10 +8058,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8062,9 +8070,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8075,27 +8083,29 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>57</v>
+        <v>433</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>182</v>
+        <v>434</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8144,19 +8154,19 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>184</v>
+        <v>432</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8165,10 +8175,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>185</v>
+        <v>438</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8179,18 +8189,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8202,17 +8212,15 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8249,31 +8257,31 @@
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8296,18 +8304,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8316,19 +8324,19 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>344</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8366,31 +8374,31 @@
         <v>45</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>347</v>
+        <v>190</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8402,7 +8410,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8413,7 +8421,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8421,7 +8429,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>55</v>
@@ -8436,16 +8444,16 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8471,13 +8479,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8495,7 +8503,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8504,7 +8512,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8530,7 +8538,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8553,16 +8561,16 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8588,13 +8596,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8612,7 +8620,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8636,7 +8644,7 @@
         <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8647,7 +8655,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8670,16 +8678,16 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8729,7 +8737,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8753,7 +8761,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8764,7 +8772,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8775,7 +8783,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8787,16 +8795,16 @@
         <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>443</v>
+        <v>57</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>444</v>
+        <v>366</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>367</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8846,13 +8854,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>442</v>
+        <v>369</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8867,10 +8875,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>98</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8881,7 +8889,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8892,7 +8900,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8904,20 +8912,18 @@
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8965,7 +8971,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8986,10 +8992,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9000,7 +9006,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9011,7 +9017,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
@@ -9020,19 +9026,23 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>182</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9080,19 +9090,19 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
@@ -9101,10 +9111,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>185</v>
+        <v>457</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9115,18 +9125,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9138,17 +9148,15 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9197,19 +9205,19 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9232,11 +9240,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>388</v>
+        <v>113</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9249,26 +9257,24 @@
         <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>389</v>
+        <v>187</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>390</v>
+        <v>188</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N65" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9316,7 +9322,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9340,7 +9346,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9351,42 +9357,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
+        <v>116</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9411,13 +9417,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>462</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9435,34 +9441,34 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>45</v>
@@ -9470,7 +9476,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9478,7 +9484,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>55</v>
@@ -9493,19 +9499,19 @@
         <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>466</v>
+        <v>159</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>274</v>
+        <v>463</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9530,13 +9536,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9554,10 +9560,10 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>55</v>
@@ -9572,24 +9578,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9609,22 +9615,22 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>159</v>
+        <v>469</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9649,13 +9655,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9673,7 +9679,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9682,7 +9688,7 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>67</v>
@@ -9691,35 +9697,35 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9734,16 +9740,16 @@
         <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>294</v>
+        <v>474</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>295</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>296</v>
+        <v>476</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9768,13 +9774,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9792,16 +9798,16 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>67</v>
@@ -9810,28 +9816,28 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9850,19 +9856,19 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>476</v>
+        <v>297</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>298</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9887,13 +9893,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9911,7 +9917,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9929,23 +9935,142 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO70">
+  <autoFilter ref="A1:AO71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9955,7 +10080,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-path-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="458">
   <si>
     <t>Path</t>
   </si>
@@ -585,101 +585,6 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -1098,7 +1003,31 @@
     <t>Observation.specimen.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.specimen.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.specimen.reference</t>
@@ -1676,7 +1605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1686,7 +1615,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.55859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3723,7 +3652,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>181</v>
       </c>
@@ -3733,31 +3662,35 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3805,7 +3738,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3817,22 +3750,22 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3840,11 +3773,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3860,19 +3793,19 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3910,19 +3843,19 @@
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3934,7 +3867,7 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>45</v>
@@ -3943,13 +3876,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3957,18 +3890,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3980,19 +3913,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4029,23 +3962,25 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -4054,43 +3989,41 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -4099,19 +4032,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4136,11 +4069,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4158,13 +4093,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4173,19 +4108,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4193,7 +4128,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4216,20 +4151,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4277,7 +4210,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4298,21 +4231,21 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4320,10 +4253,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>56</v>
@@ -4335,19 +4268,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4384,25 +4315,23 @@
         <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4411,19 +4340,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4431,9 +4360,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4442,7 +4373,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4454,18 +4385,18 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4513,7 +4444,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4528,19 +4459,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4548,11 +4479,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4571,19 +4504,17 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4632,13 +4563,13 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
@@ -4667,15 +4598,15 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
@@ -4690,19 +4621,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4751,7 +4682,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4760,33 +4691,33 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4800,27 +4731,29 @@
         <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4844,13 +4777,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4868,7 +4801,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4877,7 +4810,7 @@
         <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>67</v>
@@ -4889,32 +4822,32 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>56</v>
@@ -4923,20 +4856,22 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4961,29 +4896,31 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AB28" s="2"/>
-      <c r="AC28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4998,31 +4935,29 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5031,29 +4966,31 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5102,7 +5039,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5117,19 +5054,19 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5137,11 +5074,9 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5159,21 +5094,21 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5197,13 +5132,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5221,13 +5156,13 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5236,27 +5171,27 @@
         <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5270,28 +5205,28 @@
         <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5316,13 +5251,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5340,7 +5275,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5349,7 +5284,7 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
@@ -5358,24 +5293,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5398,20 +5333,18 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5435,13 +5368,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5459,7 +5392,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5468,7 +5401,7 @@
         <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5477,38 +5410,38 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>45</v>
@@ -5517,20 +5450,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5554,13 +5483,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5578,46 +5507,46 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5627,7 +5556,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
@@ -5636,20 +5565,18 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>308</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5685,19 +5612,19 @@
         <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5709,7 +5636,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5718,10 +5645,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5732,7 +5659,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5740,7 +5667,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>55</v>
@@ -5752,19 +5679,19 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5790,13 +5717,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5814,7 +5741,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5823,7 +5750,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5832,24 +5759,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5869,23 +5796,21 @@
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5909,13 +5834,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5933,7 +5858,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5954,10 +5879,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5966,9 +5891,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5982,16 +5907,16 @@
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>337</v>
@@ -6050,7 +5975,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6068,24 +5993,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM37" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6105,18 +6030,20 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6165,7 +6092,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6177,7 +6104,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6189,7 +6116,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6200,18 +6127,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6223,16 +6150,16 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6270,54 +6197,54 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6325,33 +6252,35 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6399,19 +6328,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6420,10 +6349,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6434,7 +6363,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6454,20 +6383,18 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6492,13 +6419,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6516,7 +6443,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6528,7 +6455,7 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6540,7 +6467,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6551,18 +6478,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6571,19 +6498,19 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>116</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6633,19 +6560,19 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6657,7 +6584,7 @@
         <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6668,41 +6595,43 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6750,19 +6679,19 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6783,9 +6712,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6799,7 +6728,7 @@
         <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
@@ -6808,17 +6737,15 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6867,7 +6794,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6876,7 +6803,7 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>67</v>
@@ -6885,19 +6812,19 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -6913,7 +6840,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>56</v>
@@ -6925,20 +6852,16 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6992,13 +6915,13 @@
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>385</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -7007,10 +6930,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7019,9 +6942,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7035,7 +6958,7 @@
         <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
@@ -7044,16 +6967,20 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>182</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7077,13 +7004,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7101,7 +7028,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>184</v>
+        <v>383</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7113,19 +7040,19 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7134,13 +7061,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7150,7 +7077,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7159,18 +7086,20 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7194,13 +7123,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7218,7 +7147,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>190</v>
+        <v>392</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7230,19 +7159,19 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7251,44 +7180,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7337,19 +7264,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7361,7 +7288,7 @@
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7372,7 +7299,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7395,13 +7322,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>396</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7452,7 +7379,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7461,7 +7388,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7473,10 +7400,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7487,7 +7414,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7498,7 +7425,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>56</v>
@@ -7507,18 +7434,20 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7567,16 +7496,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7588,10 +7517,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7600,9 +7529,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7616,7 +7545,7 @@
         <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
@@ -7625,20 +7554,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7662,13 +7587,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7686,7 +7611,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7698,19 +7623,19 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7719,13 +7644,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7735,7 +7660,7 @@
         <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>45</v>
@@ -7744,20 +7669,18 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>417</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7781,31 +7704,31 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7817,19 +7740,19 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7838,9 +7761,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7848,33 +7771,33 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>423</v>
+        <v>57</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7922,7 +7845,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7931,7 +7854,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -7946,7 +7869,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>427</v>
+        <v>98</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7955,9 +7878,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7971,24 +7894,26 @@
         <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8013,13 +7938,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8037,7 +7962,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8058,10 +7983,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>431</v>
+        <v>98</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8070,9 +7995,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8083,10 +8008,10 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8095,16 +8020,16 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>433</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>434</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>435</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>436</v>
+        <v>339</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8154,13 +8079,13 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>432</v>
+        <v>340</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
@@ -8175,10 +8100,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8189,7 +8114,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8209,18 +8134,20 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8269,7 +8196,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8281,7 +8208,7 @@
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8293,7 +8220,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8304,11 +8231,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8324,19 +8251,19 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>100</v>
+        <v>423</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>188</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
+        <v>426</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8374,19 +8301,19 @@
         <v>45</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>190</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8398,7 +8325,7 @@
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8407,10 +8334,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8421,7 +8348,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8429,10 +8356,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8444,18 +8371,20 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8503,16 +8432,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8524,10 +8453,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>98</v>
+        <v>434</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8538,7 +8467,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8558,20 +8487,18 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8596,13 +8523,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8620,7 +8547,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8632,7 +8559,7 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8644,7 +8571,7 @@
         <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8655,18 +8582,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8675,19 +8602,19 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>362</v>
+        <v>116</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8737,19 +8664,19 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8761,7 +8688,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8772,41 +8699,43 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8854,19 +8783,19 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>45</v>
@@ -8889,7 +8818,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8897,10 +8826,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8912,18 +8841,20 @@
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>446</v>
+        <v>159</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8947,13 +8878,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8971,13 +8902,13 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
@@ -8989,16 +8920,16 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>450</v>
+        <v>178</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -9006,7 +8937,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9017,7 +8948,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
@@ -9029,19 +8960,19 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>453</v>
+        <v>246</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>455</v>
+        <v>248</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9090,13 +9021,13 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -9108,24 +9039,24 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>456</v>
+        <v>251</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>457</v>
+        <v>252</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9148,16 +9079,20 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>182</v>
+        <v>451</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9181,13 +9116,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9205,7 +9140,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>184</v>
+        <v>450</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9214,10 +9149,10 @@
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9226,10 +9161,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9240,11 +9175,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9263,18 +9198,20 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9298,13 +9235,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9322,7 +9259,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>190</v>
+        <v>454</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9334,34 +9271,34 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9374,25 +9311,25 @@
         <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>116</v>
+        <v>360</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>117</v>
+        <v>361</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9441,7 +9378,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9453,7 +9390,7 @@
         <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>45</v>
@@ -9462,615 +9399,20 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO71">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10080,7 +9422,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-path-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-path-atomic-1.xlsx
@@ -496,7 +496,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/diagnostic-observation-status-1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/observationstatus-result-available-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1638,7 +1638,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.34765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
